--- a/MakanApa Member WorkList.xlsx
+++ b/MakanApa Member WorkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+  <si>
+    <t>Translate Recipe List</t>
+  </si>
   <si>
     <t>MakanApa Member WorkList</t>
   </si>
@@ -52,6 +55,15 @@
     <t>Translate foreign language to English</t>
   </si>
   <si>
+    <t>Recipe</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Tango Berry Smoothie</t>
+  </si>
+  <si>
     <t>BRYAN YEHEZKIEL</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>00000013401</t>
   </si>
   <si>
+    <t>Translate foreign language to English and making the step guide</t>
+  </si>
+  <si>
     <t>SAMUEL SETIADI</t>
   </si>
   <si>
@@ -95,18 +110,6 @@
   </si>
   <si>
     <t>00000012343</t>
-  </si>
-  <si>
-    <t>Translate Recipe List</t>
-  </si>
-  <si>
-    <t>Recipe</t>
-  </si>
-  <si>
-    <t>Person</t>
-  </si>
-  <si>
-    <t>Tango Berry Smoothie</t>
   </si>
   <si>
     <t>Sunset Cocktail</t>
@@ -227,14 +230,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
@@ -353,23 +356,23 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,7 +391,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -677,9 +680,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -688,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -696,7 +697,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -710,114 +711,114 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="35.1" customHeight="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="9"/>
+      <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="10" t="s">
+      <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="9"/>
+      <c r="B8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>16</v>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +837,9 @@
   </sheetPr>
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -846,21 +849,21 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>28</v>
+      <c r="A3" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B3" s="13" t="str">
         <f>Sheet1!$B$5</f>
@@ -871,8 +874,8 @@
       <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>29</v>
+      <c r="A4" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="13" t="str">
         <f>Sheet1!$B$5</f>
@@ -883,8 +886,8 @@
       <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>30</v>
+      <c r="A5" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="13" t="str">
         <f>Sheet1!$B$5</f>
@@ -895,8 +898,8 @@
       <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>31</v>
+      <c r="A6" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="13" t="str">
         <f>Sheet1!$B$5</f>
@@ -907,8 +910,8 @@
       <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>32</v>
+      <c r="A7" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="13" t="str">
         <f>Sheet1!$B$5</f>
@@ -919,8 +922,8 @@
       <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>33</v>
+      <c r="A8" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="13" t="str">
         <f>Sheet1!$B$7</f>
@@ -931,8 +934,8 @@
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>34</v>
+      <c r="A9" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="B9" s="13" t="str">
         <f>Sheet1!$B$7</f>
@@ -942,8 +945,8 @@
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>35</v>
+      <c r="A10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="13" t="str">
         <f>Sheet1!$B$7</f>
@@ -954,8 +957,8 @@
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>36</v>
+      <c r="A11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="13" t="str">
         <f>Sheet1!$B$7</f>
@@ -966,18 +969,18 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>37</v>
+      <c r="A12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>39</v>
+      <c r="A13" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B13" s="13" t="str">
         <f>Sheet1!$B$7</f>
@@ -986,150 +989,150 @@
       <c r="C13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>40</v>
+      <c r="A14" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
+      <c r="A16" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>45</v>
+      <c r="A17" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
-        <v>46</v>
+      <c r="A18" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>47</v>
+      <c r="A19" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
-        <v>48</v>
+      <c r="A20" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>49</v>
+      <c r="A21" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
-        <v>50</v>
+      <c r="A22" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>51</v>
+      <c r="A23" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:5" ht="12.75">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:5" ht="12.75">
-      <c r="A25" s="12" t="s">
-        <v>54</v>
+      <c r="A25" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:5" ht="12.75">
-      <c r="A26" s="12" t="s">
-        <v>55</v>
+      <c r="A26" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:5" ht="12.75">
-      <c r="A27" s="12" t="s">
-        <v>56</v>
+      <c r="A27" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="12.75">
-      <c r="A28" s="12" t="s">
-        <v>57</v>
+      <c r="A28" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
